--- a/graphs/morphRunnings.xlsx
+++ b/graphs/morphRunnings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="p = .999" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="p = .995" sheetId="4" r:id="rId3"/>
     <sheet name="p = .990" sheetId="3" r:id="rId4"/>
     <sheet name="p = .95" sheetId="5" r:id="rId5"/>
+    <sheet name="2min_comparison" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="28">
   <si>
     <t>KR</t>
   </si>
@@ -94,6 +95,24 @@
   </si>
   <si>
     <t>p = .990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THESE ARE ALL WITH EQUAL </t>
+  </si>
+  <si>
+    <t>THESE ARE ALL WITH EQUAL  EXCEPT q = .10</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>q = 10</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>p = .95</t>
   </si>
 </sst>
 </file>
@@ -8302,7 +8321,8 @@
         <c:axId val="386790984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="400"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -36170,8 +36190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R101" sqref="R101"/>
+    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36180,7 +36200,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36200,6 +36220,9 @@
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -40702,8 +40725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X98" sqref="X98"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40711,7 +40734,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40731,6 +40754,9 @@
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -45233,8 +45259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T105" sqref="T105"/>
+    <sheetView topLeftCell="J25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45242,7 +45268,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -46160,6 +46186,9 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -49763,8 +49792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N5"/>
+    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49772,7 +49801,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -49791,6 +49820,9 @@
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -54291,19 +54323,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N25"/>
+  <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
@@ -55246,4 +55283,1303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>201.40581257175</v>
+      </c>
+      <c r="C4">
+        <v>0.77951554999999995</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>201.40581257175</v>
+      </c>
+      <c r="F4">
+        <v>0.77951554999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>301.10052240940598</v>
+      </c>
+      <c r="C5">
+        <v>0.69905170000000005</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>301.10052240940598</v>
+      </c>
+      <c r="F5">
+        <v>0.69905170000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>401.88080215408098</v>
+      </c>
+      <c r="C6">
+        <v>0.62553959999999997</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>401.88080215408098</v>
+      </c>
+      <c r="F6">
+        <v>0.62553959999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>501.65546302799203</v>
+      </c>
+      <c r="C7">
+        <v>0.56203605000000001</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>501.65546302799203</v>
+      </c>
+      <c r="F7">
+        <v>0.56203605000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>602.28265124822997</v>
+      </c>
+      <c r="C8">
+        <v>0.50474905000000003</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>602.28265124822997</v>
+      </c>
+      <c r="F8">
+        <v>0.50474905000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>701.72976386793403</v>
+      </c>
+      <c r="C9">
+        <v>0.45418175</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>701.72976386793403</v>
+      </c>
+      <c r="F9">
+        <v>0.45418175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>801.34626171968898</v>
+      </c>
+      <c r="C10">
+        <v>0.40985670000000002</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>801.34626171968898</v>
+      </c>
+      <c r="F10">
+        <v>0.40985670000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>450</v>
+      </c>
+      <c r="B11">
+        <v>898.95720963682095</v>
+      </c>
+      <c r="C11">
+        <v>0.37190060000000003</v>
+      </c>
+      <c r="D11">
+        <v>450</v>
+      </c>
+      <c r="E11">
+        <v>898.95720963682095</v>
+      </c>
+      <c r="F11">
+        <v>0.37190060000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12">
+        <v>1000.95090335819</v>
+      </c>
+      <c r="C12">
+        <v>0.33447060000000001</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>1000.95090335819</v>
+      </c>
+      <c r="F12">
+        <v>0.33447060000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>550</v>
+      </c>
+      <c r="B13">
+        <v>1099.20307776861</v>
+      </c>
+      <c r="C13">
+        <v>0.30307285</v>
+      </c>
+      <c r="D13">
+        <v>550</v>
+      </c>
+      <c r="E13">
+        <v>1099.20307776861</v>
+      </c>
+      <c r="F13">
+        <v>0.30307285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>600</v>
+      </c>
+      <c r="B14">
+        <v>1198.6096128490899</v>
+      </c>
+      <c r="C14">
+        <v>0.27629914999999999</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
+        <v>1198.6096128490899</v>
+      </c>
+      <c r="F14">
+        <v>0.27629914999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>650</v>
+      </c>
+      <c r="B15">
+        <v>1295.50459904132</v>
+      </c>
+      <c r="C15">
+        <v>0.25234495000000001</v>
+      </c>
+      <c r="D15">
+        <v>650</v>
+      </c>
+      <c r="E15">
+        <v>1295.50459904132</v>
+      </c>
+      <c r="F15">
+        <v>0.25234495000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>700</v>
+      </c>
+      <c r="B16">
+        <v>1395.1866062085801</v>
+      </c>
+      <c r="C16">
+        <v>0.22942940000000001</v>
+      </c>
+      <c r="D16">
+        <v>700</v>
+      </c>
+      <c r="E16">
+        <v>1395.1866062085801</v>
+      </c>
+      <c r="F16">
+        <v>0.22942940000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>750</v>
+      </c>
+      <c r="B17">
+        <v>1495.43891132047</v>
+      </c>
+      <c r="C17">
+        <v>0.20895605</v>
+      </c>
+      <c r="D17">
+        <v>750</v>
+      </c>
+      <c r="E17">
+        <v>1495.43891132047</v>
+      </c>
+      <c r="F17">
+        <v>0.20895605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <v>1591.46972228853</v>
+      </c>
+      <c r="C18">
+        <v>0.19136520000000001</v>
+      </c>
+      <c r="D18">
+        <v>800</v>
+      </c>
+      <c r="E18">
+        <v>1591.46972228853</v>
+      </c>
+      <c r="F18">
+        <v>0.19136520000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>850</v>
+      </c>
+      <c r="B19">
+        <v>1693.76693766937</v>
+      </c>
+      <c r="C19">
+        <v>0.17549395000000001</v>
+      </c>
+      <c r="D19">
+        <v>850</v>
+      </c>
+      <c r="E19">
+        <v>1693.76693766937</v>
+      </c>
+      <c r="F19">
+        <v>0.17549395000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>900</v>
+      </c>
+      <c r="B20">
+        <v>1795.9770114942501</v>
+      </c>
+      <c r="C20">
+        <v>0.15880564999999999</v>
+      </c>
+      <c r="D20">
+        <v>900</v>
+      </c>
+      <c r="E20">
+        <v>1795.9770114942501</v>
+      </c>
+      <c r="F20">
+        <v>0.15880564999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>950</v>
+      </c>
+      <c r="B21">
+        <v>1892.5056775170301</v>
+      </c>
+      <c r="C21">
+        <v>0.14579724999999999</v>
+      </c>
+      <c r="D21">
+        <v>950</v>
+      </c>
+      <c r="E21">
+        <v>1892.5056775170301</v>
+      </c>
+      <c r="F21">
+        <v>0.14579724999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22">
+        <v>1992.4287706714399</v>
+      </c>
+      <c r="C22">
+        <v>0.13293205</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>1992.4287706714399</v>
+      </c>
+      <c r="F22">
+        <v>0.13293205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>201.32471663546099</v>
+      </c>
+      <c r="C27">
+        <v>0.61031595000000005</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>201.32471663546099</v>
+      </c>
+      <c r="F27">
+        <v>0.61031595000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>150</v>
+      </c>
+      <c r="B28">
+        <v>301.30010997454002</v>
+      </c>
+      <c r="C28">
+        <v>0.49222500000000002</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>301.30010997454002</v>
+      </c>
+      <c r="F28">
+        <v>0.49222500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>401.90502984144803</v>
+      </c>
+      <c r="C29">
+        <v>0.39989269999999999</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29">
+        <v>401.90502984144803</v>
+      </c>
+      <c r="F29">
+        <v>0.39989269999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>500.97690496468101</v>
+      </c>
+      <c r="C30">
+        <v>0.32721719999999999</v>
+      </c>
+      <c r="D30">
+        <v>250</v>
+      </c>
+      <c r="E30">
+        <v>500.97690496468101</v>
+      </c>
+      <c r="F30">
+        <v>0.32721719999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>601.92012519938601</v>
+      </c>
+      <c r="C31">
+        <v>0.26784195</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>601.92012519938601</v>
+      </c>
+      <c r="F31">
+        <v>0.26784195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>350</v>
+      </c>
+      <c r="B32">
+        <v>700.40273157065303</v>
+      </c>
+      <c r="C32">
+        <v>0.22364129999999999</v>
+      </c>
+      <c r="D32">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <v>700.40273157065303</v>
+      </c>
+      <c r="F32">
+        <v>0.22364129999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>400</v>
+      </c>
+      <c r="B33">
+        <v>799.00922855658905</v>
+      </c>
+      <c r="C33">
+        <v>0.18471455000000001</v>
+      </c>
+      <c r="D33">
+        <v>400</v>
+      </c>
+      <c r="E33">
+        <v>799.00922855658905</v>
+      </c>
+      <c r="F33">
+        <v>0.18471455000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>450</v>
+      </c>
+      <c r="B34">
+        <v>898.02882672533701</v>
+      </c>
+      <c r="C34">
+        <v>0.15371435</v>
+      </c>
+      <c r="D34">
+        <v>450</v>
+      </c>
+      <c r="E34">
+        <v>898.02882672533701</v>
+      </c>
+      <c r="F34">
+        <v>0.15371435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>1001.45210555305</v>
+      </c>
+      <c r="C35">
+        <v>0.128218</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35">
+        <v>1001.45210555305</v>
+      </c>
+      <c r="F35">
+        <v>0.128218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>550</v>
+      </c>
+      <c r="B36">
+        <v>1098.9614814000699</v>
+      </c>
+      <c r="C36">
+        <v>0.10754285</v>
+      </c>
+      <c r="D36">
+        <v>550</v>
+      </c>
+      <c r="E36">
+        <v>1098.9614814000699</v>
+      </c>
+      <c r="F36">
+        <v>0.10754285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>600</v>
+      </c>
+      <c r="B37">
+        <v>1198.6096128490899</v>
+      </c>
+      <c r="C37">
+        <v>9.0371999999999994E-2</v>
+      </c>
+      <c r="D37">
+        <v>600</v>
+      </c>
+      <c r="E37">
+        <v>1198.6096128490899</v>
+      </c>
+      <c r="F37">
+        <v>9.0371999999999994E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>650</v>
+      </c>
+      <c r="B38">
+        <v>1296.09228177046</v>
+      </c>
+      <c r="C38">
+        <v>7.6302200000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>650</v>
+      </c>
+      <c r="E38">
+        <v>1296.09228177046</v>
+      </c>
+      <c r="F38">
+        <v>7.6302200000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>700</v>
+      </c>
+      <c r="B39">
+        <v>1392.4667548562199</v>
+      </c>
+      <c r="C39">
+        <v>6.4828949999999996E-2</v>
+      </c>
+      <c r="D39">
+        <v>700</v>
+      </c>
+      <c r="E39">
+        <v>1392.4667548562199</v>
+      </c>
+      <c r="F39">
+        <v>6.4828949999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>750</v>
+      </c>
+      <c r="B40">
+        <v>1493.87511204063</v>
+      </c>
+      <c r="C40">
+        <v>5.4589600000000002E-2</v>
+      </c>
+      <c r="D40">
+        <v>750</v>
+      </c>
+      <c r="E40">
+        <v>1493.87511204063</v>
+      </c>
+      <c r="F40">
+        <v>5.4589600000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>800</v>
+      </c>
+      <c r="B41">
+        <v>1590.3307888040699</v>
+      </c>
+      <c r="C41">
+        <v>4.6515800000000003E-2</v>
+      </c>
+      <c r="D41">
+        <v>800</v>
+      </c>
+      <c r="E41">
+        <v>1590.3307888040699</v>
+      </c>
+      <c r="F41">
+        <v>4.6515800000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>850</v>
+      </c>
+      <c r="B42">
+        <v>1691.4749661705</v>
+      </c>
+      <c r="C42">
+        <v>3.9955549999999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>850</v>
+      </c>
+      <c r="E42">
+        <v>1691.4749661705</v>
+      </c>
+      <c r="F42">
+        <v>3.9955549999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>900</v>
+      </c>
+      <c r="B43">
+        <v>1795.1709900368</v>
+      </c>
+      <c r="C43">
+        <v>3.3997300000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>900</v>
+      </c>
+      <c r="E43">
+        <v>1795.1709900368</v>
+      </c>
+      <c r="F43">
+        <v>3.3997300000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>950</v>
+      </c>
+      <c r="B44">
+        <v>1893.0430667297601</v>
+      </c>
+      <c r="C44">
+        <v>2.8533099999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>950</v>
+      </c>
+      <c r="E44">
+        <v>1893.0430667297601</v>
+      </c>
+      <c r="F44">
+        <v>2.8533099999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>1997.0044932601099</v>
+      </c>
+      <c r="C45">
+        <v>2.4027349999999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>1997.0044932601099</v>
+      </c>
+      <c r="F45">
+        <v>2.4027349999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>21.003836350709399</v>
+      </c>
+      <c r="C50">
+        <v>0.15290875000000001</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>21.003836350709399</v>
+      </c>
+      <c r="F50">
+        <v>0.15290875000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>40.987974128390697</v>
+      </c>
+      <c r="C51">
+        <v>5.2321899999999998E-2</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>40.987974128390697</v>
+      </c>
+      <c r="F51">
+        <v>5.2321899999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>61.029010139969998</v>
+      </c>
+      <c r="C52">
+        <v>2.0876249999999999E-2</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>61.029010139969998</v>
+      </c>
+      <c r="F52">
+        <v>2.0876249999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>81.014627190939294</v>
+      </c>
+      <c r="C53">
+        <v>9.2384000000000008E-3</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>81.014627190939294</v>
+      </c>
+      <c r="F53">
+        <v>9.2384000000000008E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>101.098434490741</v>
+      </c>
+      <c r="C54">
+        <v>4.3880000000000004E-3</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>101.098434490741</v>
+      </c>
+      <c r="F54">
+        <v>4.3880000000000004E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>121.089563895935</v>
+      </c>
+      <c r="C55">
+        <v>2.23295E-3</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>121.089563895935</v>
+      </c>
+      <c r="F55">
+        <v>2.23295E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>141.19906243822501</v>
+      </c>
+      <c r="C56">
+        <v>1.06175E-3</v>
+      </c>
+      <c r="D56">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>141.19906243822501</v>
+      </c>
+      <c r="F56">
+        <v>1.06175E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>161.140877412077</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.0704999999999999E-4</v>
+      </c>
+      <c r="D57">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <v>161.140877412077</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5.0704999999999999E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>181.13316910592599</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.9639999999999999E-4</v>
+      </c>
+      <c r="D58">
+        <v>90</v>
+      </c>
+      <c r="E58">
+        <v>181.13316910592599</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.9639999999999999E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>201.623065678713</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.5275E-4</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>201.623065678713</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.5275E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>110</v>
+      </c>
+      <c r="B60">
+        <v>221.06775726760199</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.05E-4</v>
+      </c>
+      <c r="D60">
+        <v>110</v>
+      </c>
+      <c r="E60">
+        <v>221.06775726760199</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.05E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>240.91160953046301</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7.6149999999999994E-5</v>
+      </c>
+      <c r="D61">
+        <v>120</v>
+      </c>
+      <c r="E61">
+        <v>240.91160953046301</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7.6149999999999994E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>130</v>
+      </c>
+      <c r="B62">
+        <v>260.854821249233</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.65E-5</v>
+      </c>
+      <c r="D62">
+        <v>130</v>
+      </c>
+      <c r="E62">
+        <v>260.854821249233</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3.65E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>140</v>
+      </c>
+      <c r="B63">
+        <v>280.50097474088699</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.23E-5</v>
+      </c>
+      <c r="D63">
+        <v>140</v>
+      </c>
+      <c r="E63">
+        <v>280.50097474088699</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.23E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <v>300.390507659957</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7.7999999999999999E-6</v>
+      </c>
+      <c r="D64">
+        <v>150</v>
+      </c>
+      <c r="E64">
+        <v>300.390507659957</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7.7999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>160</v>
+      </c>
+      <c r="B65">
+        <v>320.55391716886697</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>160</v>
+      </c>
+      <c r="E65">
+        <v>320.55391716886697</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>170</v>
+      </c>
+      <c r="B66">
+        <v>341.15138592750498</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>170</v>
+      </c>
+      <c r="E66">
+        <v>341.15138592750498</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>180</v>
+      </c>
+      <c r="B67">
+        <v>361.61134013162598</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>180</v>
+      </c>
+      <c r="E67">
+        <v>361.61134013162598</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>190</v>
+      </c>
+      <c r="B68">
+        <v>381.75224279442602</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>190</v>
+      </c>
+      <c r="E68">
+        <v>381.75224279442602</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>200</v>
+      </c>
+      <c r="B69">
+        <v>402.04237526635302</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69">
+        <v>402.04237526635302</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graphs/morphRunnings.xlsx
+++ b/graphs/morphRunnings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="p = .999" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="p = .95" sheetId="5" r:id="rId5"/>
     <sheet name="2min_comparison" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36190,7 +36190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:N24"/>
     </sheetView>
   </sheetViews>
@@ -54325,7 +54325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G13" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:N25"/>
     </sheetView>
   </sheetViews>
